--- a/Tables/Sources/gameplay/HeroTrial/HeroTrialConfig.xlsx
+++ b/Tables/Sources/gameplay/HeroTrial/HeroTrialConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9420"/>
+    <workbookView windowWidth="27760" windowHeight="13560"/>
   </bookViews>
   <sheets>
     <sheet name="HeroTrial" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="48">
   <si>
     <t>ID</t>
   </si>
@@ -73,12 +73,6 @@
     <t>icon_Gaibang</t>
   </si>
   <si>
-    <t>[104_1,105_1,106_1]</t>
-  </si>
-  <si>
-    <t>[101_1,102_1,103_1]</t>
-  </si>
-  <si>
     <t>长老</t>
   </si>
   <si>
@@ -91,12 +85,6 @@
     <t>icon_Shaolin</t>
   </si>
   <si>
-    <t>[204_1,205_1,206_1]</t>
-  </si>
-  <si>
-    <t>[201_1,202_1,203_1]</t>
-  </si>
-  <si>
     <t>主持</t>
   </si>
   <si>
@@ -109,12 +97,6 @@
     <t>icon_Wudang</t>
   </si>
   <si>
-    <t>[304_1,305_1,306_1]</t>
-  </si>
-  <si>
-    <t>[301_1,302_1,303_1]</t>
-  </si>
-  <si>
     <t>护法</t>
   </si>
   <si>
@@ -127,12 +109,6 @@
     <t>icon_Emei</t>
   </si>
   <si>
-    <t>[404_1,405_1,406_1]</t>
-  </si>
-  <si>
-    <t>[401_1,402_1,403_1]</t>
-  </si>
-  <si>
     <t>使者</t>
   </si>
   <si>
@@ -143,12 +119,6 @@
   </si>
   <si>
     <t>icon_Huashan</t>
-  </si>
-  <si>
-    <t>[504_1,505_1,506_1]</t>
-  </si>
-  <si>
-    <t>[501_1,502_1,503_1]</t>
   </si>
   <si>
     <t>首座</t>
@@ -182,12 +152,6 @@
     <t>icon_Wudu</t>
   </si>
   <si>
-    <t>[604_1,605_1,606_1]</t>
-  </si>
-  <si>
-    <t>[601_1,602_1,603_1]</t>
-  </si>
-  <si>
     <t>毒使</t>
   </si>
   <si>
@@ -200,12 +164,6 @@
     <t>icon_Mojiao</t>
   </si>
   <si>
-    <t>[704_1,705_1,706_1]</t>
-  </si>
-  <si>
-    <t>[701_1,702_1,703_1]</t>
-  </si>
-  <si>
     <t>舵主</t>
   </si>
   <si>
@@ -216,12 +174,6 @@
   </si>
   <si>
     <t>icon_Xiaoyao</t>
-  </si>
-  <si>
-    <t>[804_1,805_1,806_1]</t>
-  </si>
-  <si>
-    <t>[801_1,802_1,803_1]</t>
   </si>
   <si>
     <t>首徒</t>
@@ -232,10 +184,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -253,6 +205,104 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -261,8 +311,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -270,128 +321,29 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -412,187 +364,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -630,15 +582,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -650,6 +593,35 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -684,15 +656,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -707,17 +670,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -726,10 +678,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -738,137 +690,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -880,6 +832,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1209,21 +1164,21 @@
   <dimension ref="A1:G59"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+      <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="8.89090909090909" defaultRowHeight="14" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="8.88888888888889" style="2"/>
-    <col min="2" max="2" width="8.33333333333333" style="3" customWidth="1"/>
-    <col min="3" max="3" width="8.88888888888889" style="2"/>
-    <col min="4" max="4" width="20.7777777777778" style="2" customWidth="1"/>
-    <col min="5" max="5" width="32.6666666666667" style="2" customWidth="1"/>
-    <col min="6" max="6" width="26.7777777777778" style="2" customWidth="1"/>
-    <col min="7" max="16384" width="8.88888888888889" style="2"/>
+    <col min="1" max="1" width="8.89090909090909" style="2"/>
+    <col min="2" max="2" width="8.33636363636364" style="3" customWidth="1"/>
+    <col min="3" max="3" width="8.89090909090909" style="2"/>
+    <col min="4" max="4" width="20.7818181818182" style="2" customWidth="1"/>
+    <col min="5" max="5" width="32.6636363636364" style="2" customWidth="1"/>
+    <col min="6" max="6" width="26.7818181818182" style="2" customWidth="1"/>
+    <col min="7" max="16384" width="8.89090909090909" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="12" spans="1:7">
+    <row r="1" s="1" customFormat="1" ht="13.5" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1246,7 +1201,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" s="1" customFormat="1" ht="12" spans="1:6">
+    <row r="2" s="1" customFormat="1" ht="13.5" spans="1:6">
       <c r="A2" s="1" t="s">
         <v>7</v>
       </c>
@@ -1266,7 +1221,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" s="1" customFormat="1" ht="12" spans="1:6">
+    <row r="3" s="1" customFormat="1" ht="13.5" spans="1:6">
       <c r="A3" s="1" t="s">
         <v>8</v>
       </c>
@@ -1286,7 +1241,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" s="1" customFormat="1" ht="12" spans="1:6">
+    <row r="4" s="1" customFormat="1" ht="13.5" spans="1:6">
       <c r="A4" s="1" t="s">
         <v>10</v>
       </c>
@@ -1319,14 +1274,14 @@
       <c r="D5" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="E5" s="4">
+        <v>104105106</v>
+      </c>
+      <c r="F5" s="4">
+        <v>101102103</v>
+      </c>
+      <c r="G5" s="5" t="s">
         <v>19</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G5" s="4" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -1334,22 +1289,22 @@
         <v>2</v>
       </c>
       <c r="B6" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="E6" s="4">
+        <v>204205206</v>
+      </c>
+      <c r="F6" s="4">
+        <v>201202203</v>
+      </c>
+      <c r="G6" s="5" t="s">
         <v>23</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="G6" s="4" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -1357,22 +1312,22 @@
         <v>3</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="G7" s="4" t="s">
-        <v>33</v>
+        <v>26</v>
+      </c>
+      <c r="E7" s="4">
+        <v>304305306</v>
+      </c>
+      <c r="F7" s="4">
+        <v>301302303</v>
+      </c>
+      <c r="G7" s="5" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -1380,22 +1335,22 @@
         <v>4</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="G8" s="4" t="s">
-        <v>39</v>
+        <v>30</v>
+      </c>
+      <c r="E8" s="4">
+        <v>404405406</v>
+      </c>
+      <c r="F8" s="4">
+        <v>401402403</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -1403,182 +1358,182 @@
         <v>5</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="G9" s="4" t="s">
-        <v>45</v>
+        <v>34</v>
+      </c>
+      <c r="E9" s="4">
+        <v>504505506</v>
+      </c>
+      <c r="F9" s="4">
+        <v>501502503</v>
+      </c>
+      <c r="G9" s="5" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="2">
         <v>6</v>
       </c>
-      <c r="B10" s="5" t="s">
-        <v>46</v>
+      <c r="B10" s="6" t="s">
+        <v>36</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="G10" s="4" t="s">
-        <v>51</v>
+        <v>38</v>
+      </c>
+      <c r="E10" s="4">
+        <v>604605606</v>
+      </c>
+      <c r="F10" s="4">
+        <v>601602603</v>
+      </c>
+      <c r="G10" s="5" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" s="2">
         <v>7</v>
       </c>
-      <c r="B11" s="5" t="s">
-        <v>52</v>
+      <c r="B11" s="6" t="s">
+        <v>40</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="G11" s="4" t="s">
-        <v>57</v>
+        <v>42</v>
+      </c>
+      <c r="E11" s="4">
+        <v>704705706</v>
+      </c>
+      <c r="F11" s="4">
+        <v>701702703</v>
+      </c>
+      <c r="G11" s="5" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" s="2">
         <v>8</v>
       </c>
-      <c r="B12" s="5" t="s">
-        <v>58</v>
+      <c r="B12" s="6" t="s">
+        <v>44</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>59</v>
+        <v>45</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="G12" s="4" t="s">
-        <v>63</v>
+        <v>46</v>
+      </c>
+      <c r="E12" s="4">
+        <v>804805806</v>
+      </c>
+      <c r="F12" s="4">
+        <v>801802803</v>
+      </c>
+      <c r="G12" s="5" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="18" spans="2:2">
-      <c r="B18" s="5"/>
+      <c r="B18" s="6"/>
     </row>
     <row r="31" spans="2:2">
-      <c r="B31" s="5"/>
+      <c r="B31" s="6"/>
     </row>
     <row r="32" spans="2:2">
-      <c r="B32" s="5"/>
+      <c r="B32" s="6"/>
     </row>
     <row r="33" spans="2:2">
-      <c r="B33" s="5"/>
+      <c r="B33" s="6"/>
     </row>
     <row r="34" spans="2:2">
-      <c r="B34" s="5"/>
+      <c r="B34" s="6"/>
     </row>
     <row r="35" spans="2:2">
-      <c r="B35" s="5"/>
+      <c r="B35" s="6"/>
     </row>
     <row r="36" spans="2:2">
-      <c r="B36" s="5"/>
+      <c r="B36" s="6"/>
     </row>
     <row r="37" spans="2:2">
-      <c r="B37" s="5"/>
+      <c r="B37" s="6"/>
     </row>
     <row r="38" spans="2:2">
-      <c r="B38" s="5"/>
+      <c r="B38" s="6"/>
     </row>
     <row r="39" spans="2:2">
-      <c r="B39" s="5"/>
+      <c r="B39" s="6"/>
     </row>
     <row r="40" spans="2:2">
-      <c r="B40" s="5"/>
+      <c r="B40" s="6"/>
     </row>
     <row r="41" spans="2:2">
-      <c r="B41" s="5"/>
+      <c r="B41" s="6"/>
     </row>
     <row r="42" spans="2:2">
-      <c r="B42" s="5"/>
+      <c r="B42" s="6"/>
     </row>
     <row r="43" spans="2:2">
-      <c r="B43" s="5"/>
+      <c r="B43" s="6"/>
     </row>
     <row r="44" spans="2:2">
-      <c r="B44" s="5"/>
+      <c r="B44" s="6"/>
     </row>
     <row r="45" spans="2:2">
-      <c r="B45" s="5"/>
+      <c r="B45" s="6"/>
     </row>
     <row r="46" spans="2:2">
-      <c r="B46" s="5"/>
+      <c r="B46" s="6"/>
     </row>
     <row r="47" spans="2:2">
-      <c r="B47" s="5"/>
+      <c r="B47" s="6"/>
     </row>
     <row r="48" spans="2:2">
-      <c r="B48" s="5"/>
+      <c r="B48" s="6"/>
     </row>
     <row r="49" spans="2:2">
-      <c r="B49" s="5"/>
+      <c r="B49" s="6"/>
     </row>
     <row r="50" spans="2:2">
-      <c r="B50" s="5"/>
+      <c r="B50" s="6"/>
     </row>
     <row r="51" spans="2:2">
-      <c r="B51" s="5"/>
+      <c r="B51" s="6"/>
     </row>
     <row r="52" spans="2:2">
-      <c r="B52" s="5"/>
+      <c r="B52" s="6"/>
     </row>
     <row r="53" spans="2:2">
-      <c r="B53" s="5"/>
+      <c r="B53" s="6"/>
     </row>
     <row r="54" spans="2:2">
-      <c r="B54" s="5"/>
+      <c r="B54" s="6"/>
     </row>
     <row r="55" spans="2:2">
-      <c r="B55" s="5"/>
+      <c r="B55" s="6"/>
     </row>
     <row r="56" spans="2:2">
-      <c r="B56" s="5"/>
+      <c r="B56" s="6"/>
     </row>
     <row r="57" spans="2:2">
-      <c r="B57" s="5"/>
+      <c r="B57" s="6"/>
     </row>
     <row r="58" spans="2:2">
-      <c r="B58" s="5"/>
+      <c r="B58" s="6"/>
     </row>
     <row r="59" spans="2:2">
-      <c r="B59" s="5"/>
+      <c r="B59" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Tables/Sources/gameplay/HeroTrial/HeroTrialConfig.xlsx
+++ b/Tables/Sources/gameplay/HeroTrial/HeroTrialConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27760" windowHeight="13560"/>
+    <workbookView windowWidth="23040" windowHeight="9420"/>
   </bookViews>
   <sheets>
     <sheet name="HeroTrial" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="64">
   <si>
     <t>ID</t>
   </si>
@@ -73,6 +73,12 @@
     <t>icon_Gaibang</t>
   </si>
   <si>
+    <t>104;105;106</t>
+  </si>
+  <si>
+    <t>101;102;103</t>
+  </si>
+  <si>
     <t>长老</t>
   </si>
   <si>
@@ -85,6 +91,12 @@
     <t>icon_Shaolin</t>
   </si>
   <si>
+    <t>204;205;206</t>
+  </si>
+  <si>
+    <t>201;202;203</t>
+  </si>
+  <si>
     <t>主持</t>
   </si>
   <si>
@@ -97,6 +109,12 @@
     <t>icon_Wudang</t>
   </si>
   <si>
+    <t>304;305;306</t>
+  </si>
+  <si>
+    <t>301;302;303</t>
+  </si>
+  <si>
     <t>护法</t>
   </si>
   <si>
@@ -109,6 +127,12 @@
     <t>icon_Emei</t>
   </si>
   <si>
+    <t>404;405;406</t>
+  </si>
+  <si>
+    <t>401;402;403</t>
+  </si>
+  <si>
     <t>使者</t>
   </si>
   <si>
@@ -119,6 +143,12 @@
   </si>
   <si>
     <t>icon_Huashan</t>
+  </si>
+  <si>
+    <t>504;505;506</t>
+  </si>
+  <si>
+    <t>501;502;503</t>
   </si>
   <si>
     <t>首座</t>
@@ -152,6 +182,12 @@
     <t>icon_Wudu</t>
   </si>
   <si>
+    <t>604;605;606</t>
+  </si>
+  <si>
+    <t>601;602;603</t>
+  </si>
+  <si>
     <t>毒使</t>
   </si>
   <si>
@@ -164,6 +200,12 @@
     <t>icon_Mojiao</t>
   </si>
   <si>
+    <t>704;705;706</t>
+  </si>
+  <si>
+    <t>701;702;703</t>
+  </si>
+  <si>
     <t>舵主</t>
   </si>
   <si>
@@ -174,6 +216,12 @@
   </si>
   <si>
     <t>icon_Xiaoyao</t>
+  </si>
+  <si>
+    <t>804;805;806</t>
+  </si>
+  <si>
+    <t>801;802;803</t>
   </si>
   <si>
     <t>首徒</t>
@@ -184,9 +232,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
@@ -206,14 +254,83 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -227,82 +344,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -313,6 +354,14 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -327,16 +376,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -364,187 +412,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -573,15 +621,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -593,35 +632,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -641,17 +651,31 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -670,6 +694,30 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -678,145 +726,145 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1164,21 +1212,21 @@
   <dimension ref="A1:G59"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+      <selection activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.89090909090909" defaultRowHeight="14" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="8.89090909090909" style="2"/>
-    <col min="2" max="2" width="8.33636363636364" style="3" customWidth="1"/>
-    <col min="3" max="3" width="8.89090909090909" style="2"/>
-    <col min="4" max="4" width="20.7818181818182" style="2" customWidth="1"/>
-    <col min="5" max="5" width="32.6636363636364" style="2" customWidth="1"/>
-    <col min="6" max="6" width="26.7818181818182" style="2" customWidth="1"/>
-    <col min="7" max="16384" width="8.89090909090909" style="2"/>
+    <col min="1" max="1" width="8.88888888888889" style="2"/>
+    <col min="2" max="2" width="8.33333333333333" style="3" customWidth="1"/>
+    <col min="3" max="3" width="8.88888888888889" style="2"/>
+    <col min="4" max="4" width="20.7777777777778" style="2" customWidth="1"/>
+    <col min="5" max="5" width="32.6666666666667" style="2" customWidth="1"/>
+    <col min="6" max="6" width="26.7777777777778" style="2" customWidth="1"/>
+    <col min="7" max="16384" width="8.88888888888889" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="13.5" spans="1:7">
+    <row r="1" s="1" customFormat="1" ht="12" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1201,7 +1249,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" s="1" customFormat="1" ht="13.5" spans="1:6">
+    <row r="2" s="1" customFormat="1" ht="12" spans="1:6">
       <c r="A2" s="1" t="s">
         <v>7</v>
       </c>
@@ -1221,7 +1269,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" s="1" customFormat="1" ht="13.5" spans="1:6">
+    <row r="3" s="1" customFormat="1" ht="12" spans="1:6">
       <c r="A3" s="1" t="s">
         <v>8</v>
       </c>
@@ -1241,7 +1289,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" s="1" customFormat="1" ht="13.5" spans="1:6">
+    <row r="4" s="1" customFormat="1" ht="12" spans="1:6">
       <c r="A4" s="1" t="s">
         <v>10</v>
       </c>
@@ -1274,14 +1322,14 @@
       <c r="D5" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E5" s="4">
-        <v>104105106</v>
-      </c>
-      <c r="F5" s="4">
-        <v>101102103</v>
+      <c r="E5" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>20</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -1289,22 +1337,22 @@
         <v>2</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E6" s="4">
-        <v>204205206</v>
-      </c>
-      <c r="F6" s="4">
-        <v>201202203</v>
+        <v>24</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>26</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -1312,22 +1360,22 @@
         <v>3</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="E7" s="4">
-        <v>304305306</v>
-      </c>
-      <c r="F7" s="4">
-        <v>301302303</v>
+        <v>30</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>32</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -1335,22 +1383,22 @@
         <v>4</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="E8" s="4">
-        <v>404405406</v>
-      </c>
-      <c r="F8" s="4">
-        <v>401402403</v>
+        <v>36</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>38</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -1358,22 +1406,22 @@
         <v>5</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="E9" s="4">
-        <v>504505506</v>
-      </c>
-      <c r="F9" s="4">
-        <v>501502503</v>
+        <v>42</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>44</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -1381,22 +1429,22 @@
         <v>6</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="E10" s="4">
-        <v>604605606</v>
-      </c>
-      <c r="F10" s="4">
-        <v>601602603</v>
+        <v>48</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>50</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>39</v>
+        <v>51</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -1404,22 +1452,22 @@
         <v>7</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="E11" s="4">
-        <v>704705706</v>
-      </c>
-      <c r="F11" s="4">
-        <v>701702703</v>
+        <v>54</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>56</v>
       </c>
       <c r="G11" s="5" t="s">
-        <v>43</v>
+        <v>57</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -1427,22 +1475,22 @@
         <v>8</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>44</v>
+        <v>58</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>45</v>
+        <v>59</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="E12" s="4">
-        <v>804805806</v>
-      </c>
-      <c r="F12" s="4">
-        <v>801802803</v>
+        <v>60</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>62</v>
       </c>
       <c r="G12" s="5" t="s">
-        <v>47</v>
+        <v>63</v>
       </c>
     </row>
     <row r="18" spans="2:2">

--- a/Tables/Sources/gameplay/HeroTrial/HeroTrialConfig.xlsx
+++ b/Tables/Sources/gameplay/HeroTrial/HeroTrialConfig.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="63">
   <si>
     <t>ID</t>
   </si>
@@ -127,10 +127,7 @@
     <t>icon_Emei</t>
   </si>
   <si>
-    <t>404;405;406</t>
-  </si>
-  <si>
-    <t>401;402;403</t>
+    <t>401;402</t>
   </si>
   <si>
     <t>使者</t>
@@ -232,10 +229,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -261,29 +258,74 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -291,30 +333,7 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
       <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -328,9 +347,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -344,6 +371,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -354,44 +388,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -418,61 +415,103 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -484,115 +523,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -636,45 +633,12 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -691,6 +655,21 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -713,8 +692,26 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -726,7 +723,7 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
@@ -738,133 +735,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1212,7 +1209,7 @@
   <dimension ref="A1:G59"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I20" sqref="I20"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="6"/>
@@ -1391,14 +1388,14 @@
       <c r="D8" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="E8" s="4" t="s">
+      <c r="E8" s="4">
+        <v>403</v>
+      </c>
+      <c r="F8" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="F8" s="4" t="s">
+      <c r="G8" s="5" t="s">
         <v>38</v>
-      </c>
-      <c r="G8" s="5" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -1406,22 +1403,22 @@
         <v>5</v>
       </c>
       <c r="B9" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C9" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="D9" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="D9" s="2" t="s">
+      <c r="E9" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="E9" s="4" t="s">
+      <c r="F9" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="F9" s="4" t="s">
+      <c r="G9" s="5" t="s">
         <v>44</v>
-      </c>
-      <c r="G9" s="5" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -1429,22 +1426,22 @@
         <v>6</v>
       </c>
       <c r="B10" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="C10" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="D10" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="D10" s="2" t="s">
+      <c r="E10" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="E10" s="4" t="s">
+      <c r="F10" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="F10" s="4" t="s">
+      <c r="G10" s="5" t="s">
         <v>50</v>
-      </c>
-      <c r="G10" s="5" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -1452,22 +1449,22 @@
         <v>7</v>
       </c>
       <c r="B11" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="C11" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="D11" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="D11" s="2" t="s">
+      <c r="E11" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="E11" s="4" t="s">
+      <c r="F11" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="F11" s="4" t="s">
+      <c r="G11" s="5" t="s">
         <v>56</v>
-      </c>
-      <c r="G11" s="5" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -1475,22 +1472,22 @@
         <v>8</v>
       </c>
       <c r="B12" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="C12" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="D12" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="D12" s="2" t="s">
+      <c r="E12" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="E12" s="4" t="s">
+      <c r="F12" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="F12" s="4" t="s">
+      <c r="G12" s="5" t="s">
         <v>62</v>
-      </c>
-      <c r="G12" s="5" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="18" spans="2:2">

--- a/Tables/Sources/gameplay/HeroTrial/HeroTrialConfig.xlsx
+++ b/Tables/Sources/gameplay/HeroTrial/HeroTrialConfig.xlsx
@@ -142,10 +142,10 @@
     <t>icon_Huashan</t>
   </si>
   <si>
-    <t>504;505;506</t>
-  </si>
-  <si>
-    <t>501;502;503</t>
+    <t>503;504;505</t>
+  </si>
+  <si>
+    <t>501;502</t>
   </si>
   <si>
     <t>首座</t>
@@ -179,10 +179,10 @@
     <t>icon_Wudu</t>
   </si>
   <si>
-    <t>604;605;606</t>
-  </si>
-  <si>
-    <t>601;602;603</t>
+    <t>603;605;606</t>
+  </si>
+  <si>
+    <t>601;602</t>
   </si>
   <si>
     <t>毒使</t>
@@ -229,10 +229,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -251,89 +251,29 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -347,6 +287,37 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
@@ -355,9 +326,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -372,7 +342,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -388,6 +358,36 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -409,187 +409,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -618,6 +618,17 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -633,13 +644,50 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -659,45 +707,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -706,15 +715,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -723,10 +723,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -735,133 +735,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="26" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1208,8 +1208,8 @@
   <sheetPr/>
   <dimension ref="A1:G59"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="6"/>

--- a/Tables/Sources/gameplay/HeroTrial/HeroTrialConfig.xlsx
+++ b/Tables/Sources/gameplay/HeroTrial/HeroTrialConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9420"/>
+    <workbookView windowHeight="18060"/>
   </bookViews>
   <sheets>
     <sheet name="HeroTrial" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="40">
   <si>
     <t>ID</t>
   </si>
@@ -127,101 +127,13 @@
     <t>icon_Emei</t>
   </si>
   <si>
+    <t>403;404;405</t>
+  </si>
+  <si>
     <t>401;402</t>
   </si>
   <si>
     <t>使者</t>
-  </si>
-  <si>
-    <t>Huashan</t>
-  </si>
-  <si>
-    <t>华山</t>
-  </si>
-  <si>
-    <t>icon_Huashan</t>
-  </si>
-  <si>
-    <t>503;504;505</t>
-  </si>
-  <si>
-    <t>501;502</t>
-  </si>
-  <si>
-    <t>首座</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>W</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>udu</t>
-    </r>
-  </si>
-  <si>
-    <t>五毒</t>
-  </si>
-  <si>
-    <t>icon_Wudu</t>
-  </si>
-  <si>
-    <t>603;605;606</t>
-  </si>
-  <si>
-    <t>601;602</t>
-  </si>
-  <si>
-    <t>毒使</t>
-  </si>
-  <si>
-    <t>Mojiao</t>
-  </si>
-  <si>
-    <t>魔教</t>
-  </si>
-  <si>
-    <t>icon_Mojiao</t>
-  </si>
-  <si>
-    <t>704;705;706</t>
-  </si>
-  <si>
-    <t>701;702;703</t>
-  </si>
-  <si>
-    <t>舵主</t>
-  </si>
-  <si>
-    <t>Xiaoyao</t>
-  </si>
-  <si>
-    <t>逍遥</t>
-  </si>
-  <si>
-    <t>icon_Xiaoyao</t>
-  </si>
-  <si>
-    <t>804;805;806</t>
-  </si>
-  <si>
-    <t>801;802;803</t>
-  </si>
-  <si>
-    <t>首徒</t>
   </si>
 </sst>
 </file>
@@ -229,10 +141,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -250,6 +162,7 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -258,22 +171,81 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -287,47 +259,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -341,13 +275,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -364,31 +291,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -409,187 +321,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -625,6 +537,30 @@
       </top>
       <bottom style="double">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -691,30 +627,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -723,10 +635,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -735,133 +647,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="26" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1208,8 +1120,8 @@
   <sheetPr/>
   <dimension ref="A1:G59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="6"/>
@@ -1388,107 +1300,46 @@
       <c r="D8" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="E8" s="4">
-        <v>403</v>
+      <c r="E8" s="4" t="s">
+        <v>37</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="A9" s="2">
-        <v>5</v>
-      </c>
-      <c r="B9" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="C9" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="F9" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="G9" s="5" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
-      <c r="A10" s="2">
-        <v>6</v>
-      </c>
-      <c r="B10" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="F10" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="G10" s="5" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
-      <c r="A11" s="2">
-        <v>7</v>
-      </c>
-      <c r="B11" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="E11" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="F11" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="G11" s="5" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
-      <c r="A12" s="2">
-        <v>8</v>
-      </c>
-      <c r="B12" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="E12" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="F12" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="G12" s="5" t="s">
-        <v>62</v>
-      </c>
+    </row>
+    <row r="9" spans="3:7">
+      <c r="C9" s="3"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="5"/>
+    </row>
+    <row r="10" spans="2:7">
+      <c r="B10" s="6"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="5"/>
+    </row>
+    <row r="11" spans="2:7">
+      <c r="B11" s="6"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="5"/>
+    </row>
+    <row r="12" spans="2:7">
+      <c r="B12" s="6"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="5"/>
     </row>
     <row r="18" spans="2:2">
       <c r="B18" s="6"/>

--- a/Tables/Sources/gameplay/HeroTrial/HeroTrialConfig.xlsx
+++ b/Tables/Sources/gameplay/HeroTrial/HeroTrialConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="18060"/>
+    <workbookView windowWidth="23040" windowHeight="9420"/>
   </bookViews>
   <sheets>
     <sheet name="HeroTrial" sheetId="1" r:id="rId1"/>
@@ -100,22 +100,22 @@
     <t>主持</t>
   </si>
   <si>
-    <t>Wudang</t>
-  </si>
-  <si>
-    <t>武当</t>
-  </si>
-  <si>
-    <t>icon_Wudang</t>
-  </si>
-  <si>
-    <t>304;305;306</t>
-  </si>
-  <si>
-    <t>301;302;303</t>
-  </si>
-  <si>
-    <t>护法</t>
+    <t>Wudu</t>
+  </si>
+  <si>
+    <t>五毒</t>
+  </si>
+  <si>
+    <t>icon_Wudu</t>
+  </si>
+  <si>
+    <t>603;604;605</t>
+  </si>
+  <si>
+    <t>601;602</t>
+  </si>
+  <si>
+    <t>毒使</t>
   </si>
   <si>
     <t>Emei</t>
@@ -141,10 +141,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -162,6 +162,20 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -170,82 +184,54 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -259,11 +245,26 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -283,9 +284,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -321,6 +321,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -333,19 +339,121 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -357,151 +465,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -541,15 +541,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -560,6 +551,36 @@
         <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -580,17 +601,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -612,21 +627,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -635,145 +635,145 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1121,7 +1121,7 @@
   <dimension ref="A1:G59"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="6"/>
@@ -1312,7 +1312,6 @@
     </row>
     <row r="9" spans="3:7">
       <c r="C9" s="3"/>
-      <c r="D9" s="2"/>
       <c r="E9" s="4"/>
       <c r="F9" s="4"/>
       <c r="G9" s="5"/>
@@ -1320,7 +1319,6 @@
     <row r="10" spans="2:7">
       <c r="B10" s="6"/>
       <c r="C10" s="3"/>
-      <c r="D10" s="2"/>
       <c r="E10" s="4"/>
       <c r="F10" s="4"/>
       <c r="G10" s="5"/>
@@ -1328,7 +1326,6 @@
     <row r="11" spans="2:7">
       <c r="B11" s="6"/>
       <c r="C11" s="3"/>
-      <c r="D11" s="2"/>
       <c r="E11" s="4"/>
       <c r="F11" s="4"/>
       <c r="G11" s="5"/>
@@ -1336,7 +1333,6 @@
     <row r="12" spans="2:7">
       <c r="B12" s="6"/>
       <c r="C12" s="3"/>
-      <c r="D12" s="2"/>
       <c r="E12" s="4"/>
       <c r="F12" s="4"/>
       <c r="G12" s="5"/>

--- a/Tables/Sources/gameplay/HeroTrial/HeroTrialConfig.xlsx
+++ b/Tables/Sources/gameplay/HeroTrial/HeroTrialConfig.xlsx
@@ -97,7 +97,7 @@
     <t>201;202;203</t>
   </si>
   <si>
-    <t>主持</t>
+    <t>住持</t>
   </si>
   <si>
     <t>Wudu</t>
@@ -115,7 +115,7 @@
     <t>601;602</t>
   </si>
   <si>
-    <t>毒使</t>
+    <t>香主</t>
   </si>
   <si>
     <t>Emei</t>
@@ -141,10 +141,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -170,68 +170,67 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -245,26 +244,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -293,6 +277,22 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -321,187 +321,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -532,10 +532,58 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
       <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -556,17 +604,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -585,48 +627,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -635,10 +635,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -647,133 +647,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1121,7 +1121,7 @@
   <dimension ref="A1:G59"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="6"/>

--- a/Tables/Sources/gameplay/HeroTrial/HeroTrialConfig.xlsx
+++ b/Tables/Sources/gameplay/HeroTrial/HeroTrialConfig.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="39">
   <si>
     <t>ID</t>
   </si>
@@ -76,7 +76,7 @@
     <t>104;105;106</t>
   </si>
   <si>
-    <t>101;102;103</t>
+    <t>101;102</t>
   </si>
   <si>
     <t>长老</t>
@@ -110,9 +110,6 @@
   </si>
   <si>
     <t>603;604;605</t>
-  </si>
-  <si>
-    <t>601;602</t>
   </si>
   <si>
     <t>香主</t>
@@ -141,10 +138,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -163,6 +160,28 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -170,14 +189,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -185,47 +205,32 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -244,6 +249,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -261,15 +281,8 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -278,22 +291,6 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -321,187 +318,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -530,26 +527,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -561,6 +538,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -589,17 +575,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -607,8 +589,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -627,6 +609,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -635,10 +632,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -647,133 +644,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1121,7 +1118,7 @@
   <dimension ref="A1:G59"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="6"/>
@@ -1280,11 +1277,11 @@
       <c r="E7" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="F7" s="4" t="s">
+      <c r="F7" s="4">
+        <v>601</v>
+      </c>
+      <c r="G7" s="5" t="s">
         <v>32</v>
-      </c>
-      <c r="G7" s="5" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -1292,22 +1289,22 @@
         <v>4</v>
       </c>
       <c r="B8" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C8" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="D8" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="E8" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="E8" s="4" t="s">
+      <c r="F8" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="F8" s="4" t="s">
+      <c r="G8" s="5" t="s">
         <v>38</v>
-      </c>
-      <c r="G8" s="5" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="9" spans="3:7">
